--- a/results/birth/SEED_1337/result.xlsx
+++ b/results/birth/SEED_1337/result.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,18 @@
       <c r="AH1" s="1" t="n"/>
       <c r="AI1" s="1" t="n"/>
       <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>BOUNDARY</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
@@ -723,6 +735,46 @@
           <t>0.20</t>
         </is>
       </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -848,6 +900,30 @@
       </c>
       <c r="AJ4" t="n">
         <v>2122.318591578801</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>385.8309564018249</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>391.1910715484619</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>394.7090356699626</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>397.0392293294271</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>406.3723960558573</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>421.9438964970906</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>463.9439326985677</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>618.506653251648</v>
       </c>
     </row>
     <row r="5">
@@ -959,6 +1035,30 @@
       <c r="AJ5" t="n">
         <v>2215.950322129991</v>
       </c>
+      <c r="AK5" t="n">
+        <v>491.1585717792276</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>495.0655865475306</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>499.3598978283595</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>496.5037183535468</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>515.1999076481044</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>534.2222562855211</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>614.9062889104446</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>801.1559861854735</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -968,7 +1068,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9991613488014985</v>
+        <v>0.9991613488014988</v>
       </c>
       <c r="D6" t="n">
         <v>0.9991785099692561</v>
@@ -977,31 +1077,31 @@
         <v>0.9991312171444644</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9990909100488068</v>
+        <v>0.9990909100488067</v>
       </c>
       <c r="G6" t="n">
         <v>0.9990253644924816</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9989652445998871</v>
+        <v>0.9989652445998872</v>
       </c>
       <c r="I6" t="n">
         <v>0.9989665293594471</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9987684197723856</v>
+        <v>0.9987684197723854</v>
       </c>
       <c r="K6" t="n">
         <v>0.9984554207974043</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9970805641185063</v>
+        <v>0.9970805641185065</v>
       </c>
       <c r="M6" t="n">
-        <v>0.999122490003587</v>
+        <v>0.9991224900035872</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9990957283061609</v>
+        <v>0.9990957283061611</v>
       </c>
       <c r="O6" t="n">
         <v>0.9990530794293351</v>
@@ -1022,10 +1122,10 @@
         <v>0.9984024777749864</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9989249255373928</v>
+        <v>0.998924925537393</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9986357725891329</v>
+        <v>0.9986357725891327</v>
       </c>
       <c r="W6" t="n">
         <v>0.9982922245662094</v>
@@ -1034,7 +1134,7 @@
         <v>0.997850445911191</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9974412873259306</v>
+        <v>0.9974412873259307</v>
       </c>
       <c r="Z6" t="n">
         <v>0.9960636282775182</v>
@@ -1046,7 +1146,7 @@
         <v>0.9832699996809025</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.998894767282659</v>
+        <v>0.9988947672826592</v>
       </c>
       <c r="AD6" t="n">
         <v>0.9985601714383049</v>
@@ -1055,7 +1155,7 @@
         <v>0.998179963775372</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9977360254844049</v>
+        <v>0.9977360254844051</v>
       </c>
       <c r="AG6" t="n">
         <v>0.9972923052248458</v>
@@ -1067,7 +1167,31 @@
         <v>0.9938498177906526</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.9834787409037218</v>
+        <v>0.9834787409037219</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.9991558283219409</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.9991399461906083</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.9991279610152928</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.9991520262174486</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9990737667233376</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.998981776193121</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.998659902738153</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.997716921676422</v>
       </c>
     </row>
     <row r="7">
@@ -1182,6 +1306,30 @@
       </c>
       <c r="AJ7" t="n">
         <v>1896.169933185577</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>415.4717549069723</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>418.0133662605286</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>418.7792081324259</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>434.4067901674907</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>433.9814000384013</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>445.1295617039999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>513.1038867441813</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>680.8991062355042</v>
       </c>
     </row>
     <row r="8">
@@ -1293,6 +1441,30 @@
       <c r="AJ8" t="n">
         <v>1947.27970219294</v>
       </c>
+      <c r="AK8" t="n">
+        <v>511.9682169789609</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>518.2065764221599</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>517.6951448638611</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>535.4154830575009</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>530.5251851732917</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>542.1869801055376</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>638.0499407098257</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>827.2670269163315</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -1302,13 +1474,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9990280886093267</v>
+        <v>0.9990280886093269</v>
       </c>
       <c r="D9" t="n">
         <v>0.9991350978287694</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999037975509427</v>
+        <v>0.9990379755094267</v>
       </c>
       <c r="F9" t="n">
         <v>0.9990388391698404</v>
@@ -1320,10 +1492,10 @@
         <v>0.9990127663573183</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9989862465821855</v>
+        <v>0.9989862465821853</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9988786408152991</v>
+        <v>0.9988786408152995</v>
       </c>
       <c r="K9" t="n">
         <v>0.9987139649061478</v>
@@ -1332,7 +1504,7 @@
         <v>0.9976133565030348</v>
       </c>
       <c r="M9" t="n">
-        <v>0.999037975509427</v>
+        <v>0.9990379755094267</v>
       </c>
       <c r="N9" t="n">
         <v>0.9990456379778145</v>
@@ -1341,7 +1513,7 @@
         <v>0.9990505845719716</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9990494638913531</v>
+        <v>0.9990494638913529</v>
       </c>
       <c r="Q9" t="n">
         <v>0.9990357114995352</v>
@@ -1350,19 +1522,19 @@
         <v>0.9989765747114154</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9988017959920138</v>
+        <v>0.9988017959920136</v>
       </c>
       <c r="T9" t="n">
         <v>0.9977346845908764</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9988143278531426</v>
+        <v>0.9988143278531428</v>
       </c>
       <c r="V9" t="n">
         <v>0.9985621623214292</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9982700770578669</v>
+        <v>0.9982700770578671</v>
       </c>
       <c r="X9" t="n">
         <v>0.9979372075405459</v>
@@ -1371,25 +1543,25 @@
         <v>0.9975589638681617</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.9964004033147164</v>
+        <v>0.9964004033147162</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.9949128814290146</v>
+        <v>0.9949128814290145</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.9857944235604486</v>
+        <v>0.9857944235604483</v>
       </c>
       <c r="AC9" t="n">
         <v>0.9987910511453471</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.9985106839233708</v>
+        <v>0.9985106839233711</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.9981855664160234</v>
+        <v>0.9981855664160236</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.9978152121401617</v>
+        <v>0.9978152121401619</v>
       </c>
       <c r="AG9" t="n">
         <v>0.9973950965535285</v>
@@ -1401,7 +1573,31 @@
         <v>0.9944834138228938</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.9850749790500486</v>
+        <v>0.9850749790500488</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.9990133123323123</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.9989780500616255</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9989949035212186</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.9989230801493203</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9989373682869108</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.9989059283125489</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.998442591664765</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.9973749075293667</v>
       </c>
     </row>
     <row r="10">
@@ -1516,6 +1712,30 @@
       </c>
       <c r="AJ10" t="n">
         <v>2221.107285423279</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>315.4416551526388</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>317.3214560890198</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>337.0510022735596</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>348.4658999951681</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>350.0478318850199</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>380.9835699017843</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>441.200032749176</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>673.8200302346547</v>
       </c>
     </row>
     <row r="11">
@@ -1627,6 +1847,30 @@
       <c r="AJ11" t="n">
         <v>2328.821977748245</v>
       </c>
+      <c r="AK11" t="n">
+        <v>441.2778873238339</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>440.7485394175382</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>459.6649198111583</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>470.0443937153195</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>479.7561652518424</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>503.700016540021</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>564.7376069564607</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>844.3186495523017</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1645,19 +1889,19 @@
         <v>0.9990319578348139</v>
       </c>
       <c r="F12" t="n">
-        <v>0.99902356370221</v>
+        <v>0.9990235637022099</v>
       </c>
       <c r="G12" t="n">
         <v>0.9990028126940513</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9989697618033406</v>
+        <v>0.9989697618033408</v>
       </c>
       <c r="I12" t="n">
         <v>0.9989245377211321</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9987587891578174</v>
+        <v>0.9987587891578176</v>
       </c>
       <c r="K12" t="n">
         <v>0.9985211962051177</v>
@@ -1666,25 +1910,25 @@
         <v>0.9967926873537819</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9992822995720784</v>
+        <v>0.9992822995720781</v>
       </c>
       <c r="N12" t="n">
         <v>0.9992855786010171</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9992768456034681</v>
+        <v>0.9992768456034683</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9992639372891163</v>
+        <v>0.9992639372891161</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.99923480058445</v>
+        <v>0.9992348005844498</v>
       </c>
       <c r="R12" t="n">
         <v>0.9991460236738773</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9989561406368199</v>
+        <v>0.9989561406368201</v>
       </c>
       <c r="T12" t="n">
         <v>0.9982257937114584</v>
@@ -1693,7 +1937,7 @@
         <v>0.9990522453013766</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9987633367462583</v>
+        <v>0.9987633367462585</v>
       </c>
       <c r="W12" t="n">
         <v>0.9984070279771647</v>
@@ -1702,31 +1946,31 @@
         <v>0.9979758238888553</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9974557280185209</v>
+        <v>0.9974557280185207</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.9956626461553879</v>
+        <v>0.9956626461553881</v>
       </c>
       <c r="AA12" t="n">
         <v>0.9930796676461493</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.9820441266337805</v>
+        <v>0.9820441266337806</v>
       </c>
       <c r="AC12" t="n">
         <v>0.9989685344943924</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.9985478472607602</v>
+        <v>0.9985478472607604</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.9980142864942997</v>
+        <v>0.9980142864942999</v>
       </c>
       <c r="AF12" t="n">
         <v>0.997362036445356</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.9965819269357536</v>
+        <v>0.9965819269357539</v>
       </c>
       <c r="AH12" t="n">
         <v>0.9940683483990522</v>
@@ -1737,15 +1981,40 @@
       <c r="AJ12" t="n">
         <v>0.9788847214484285</v>
       </c>
+      <c r="AK12" t="n">
+        <v>0.9992702074576406</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.999273539112866</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.9992016846953634</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.9991556022067656</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.9991253388025124</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.9990233690505527</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.9987860596935169</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.9971681726709546</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
